--- a/history/results_final_2/f_occupancy_t4013/final_stability.xlsx
+++ b/history/results_final_2/f_occupancy_t4013/final_stability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\papers\code_EOCNN_KES2020\history\results_final_2\f_occupancy_t4013\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\chasebk\code_EOCNN_KES2020\history\results_final_2\f_occupancy_t4013\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4343D03-CFCB-480D-A092-C2FC63B03C9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCDE66FB-3D1F-40D6-8786-E44067E7D3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="17">
   <si>
     <t>GRU</t>
   </si>
@@ -401,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -420,7 +420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -449,7 +449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.49509999999999998</v>
       </c>
@@ -478,7 +478,7 @@
         <v>3.9302999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.50109999999999999</v>
       </c>
@@ -507,7 +507,7 @@
         <v>3.9047999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.50149999999999995</v>
       </c>
@@ -536,7 +536,7 @@
         <v>3.7587000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.50519999999999998</v>
       </c>
@@ -565,7 +565,7 @@
         <v>3.859</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.49740000000000001</v>
       </c>
@@ -594,7 +594,7 @@
         <v>3.9180999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.499</v>
       </c>
@@ -623,7 +623,7 @@
         <v>3.8515000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.4955</v>
       </c>
@@ -652,7 +652,7 @@
         <v>3.8035000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.49330000000000002</v>
       </c>
@@ -681,7 +681,7 @@
         <v>3.9316</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.49009999999999998</v>
       </c>
@@ -710,7 +710,7 @@
         <v>3.8689</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0.49249999999999999</v>
       </c>
@@ -739,7 +739,7 @@
         <v>3.8603000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>5</v>
       </c>
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -781,8 +781,11 @@
       <c r="K15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16.327999999999999</v>
       </c>
@@ -795,14 +798,29 @@
       <c r="D16">
         <v>10.5726</v>
       </c>
+      <c r="F16">
+        <v>9.9611000000000001</v>
+      </c>
+      <c r="G16">
+        <v>14.1142</v>
+      </c>
+      <c r="H16">
+        <v>8.9337999999999997</v>
+      </c>
+      <c r="I16">
+        <v>9.6965000000000003</v>
+      </c>
       <c r="J16">
         <v>10.0838</v>
       </c>
       <c r="K16">
         <v>9.33</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N16">
+        <v>9.0688999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13.2943</v>
       </c>
@@ -815,14 +833,29 @@
       <c r="D17">
         <v>9.9376999999999995</v>
       </c>
+      <c r="F17">
+        <v>10.841799999999999</v>
+      </c>
+      <c r="G17">
+        <v>10.206200000000001</v>
+      </c>
+      <c r="H17">
+        <v>12.8073</v>
+      </c>
+      <c r="I17">
+        <v>9.2143999999999995</v>
+      </c>
       <c r="J17">
         <v>12.011900000000001</v>
       </c>
       <c r="K17">
         <v>8.9621999999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N17">
+        <v>9.3475999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>14.125500000000001</v>
       </c>
@@ -835,14 +868,29 @@
       <c r="D18">
         <v>9.7209000000000003</v>
       </c>
+      <c r="F18">
+        <v>21.4556</v>
+      </c>
+      <c r="G18">
+        <v>13.523</v>
+      </c>
+      <c r="H18">
+        <v>11.052899999999999</v>
+      </c>
+      <c r="I18">
+        <v>9.5454000000000008</v>
+      </c>
       <c r="J18">
         <v>8.3050999999999995</v>
       </c>
       <c r="K18">
         <v>8.8498000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N18">
+        <v>9.4262999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11.9353</v>
       </c>
@@ -855,14 +903,29 @@
       <c r="D19">
         <v>9.5496999999999996</v>
       </c>
+      <c r="F19">
+        <v>10.1007</v>
+      </c>
+      <c r="G19">
+        <v>12.4635</v>
+      </c>
+      <c r="H19">
+        <v>8.9327000000000005</v>
+      </c>
+      <c r="I19">
+        <v>9.2287999999999997</v>
+      </c>
       <c r="J19">
         <v>9.9441000000000006</v>
       </c>
       <c r="K19">
         <v>9.2781000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N19">
+        <v>9.5610999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>13.3287</v>
       </c>
@@ -875,14 +938,29 @@
       <c r="D20">
         <v>10.975099999999999</v>
       </c>
+      <c r="F20">
+        <v>9.2819000000000003</v>
+      </c>
+      <c r="G20">
+        <v>10.2698</v>
+      </c>
+      <c r="H20">
+        <v>10.982699999999999</v>
+      </c>
+      <c r="I20">
+        <v>9.2669999999999995</v>
+      </c>
       <c r="J20">
         <v>9.0862999999999996</v>
       </c>
       <c r="K20">
         <v>9.6814</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N20">
+        <v>9.3865999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>11.2921</v>
       </c>
@@ -895,14 +973,29 @@
       <c r="D21">
         <v>9.7584999999999997</v>
       </c>
+      <c r="F21">
+        <v>9.5615000000000006</v>
+      </c>
+      <c r="G21">
+        <v>12.011200000000001</v>
+      </c>
+      <c r="H21">
+        <v>8.6346000000000007</v>
+      </c>
+      <c r="I21">
+        <v>8.8141999999999996</v>
+      </c>
       <c r="J21">
         <v>9.4266000000000005</v>
       </c>
       <c r="K21">
         <v>9.1835000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N21">
+        <v>10.263500000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14.806100000000001</v>
       </c>
@@ -915,14 +1008,29 @@
       <c r="D22">
         <v>9.9717000000000002</v>
       </c>
+      <c r="F22">
+        <v>10.6564</v>
+      </c>
+      <c r="G22">
+        <v>10.6365</v>
+      </c>
+      <c r="H22">
+        <v>12.215999999999999</v>
+      </c>
+      <c r="I22">
+        <v>9.3244000000000007</v>
+      </c>
       <c r="J22">
         <v>8.6064000000000007</v>
       </c>
       <c r="K22">
         <v>8.8325999999999993</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N22">
+        <v>9.6875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14.3544</v>
       </c>
@@ -935,14 +1043,29 @@
       <c r="D23">
         <v>9.9010999999999996</v>
       </c>
+      <c r="F23">
+        <v>11.370200000000001</v>
+      </c>
+      <c r="G23">
+        <v>13.597300000000001</v>
+      </c>
+      <c r="H23">
+        <v>10.3447</v>
+      </c>
+      <c r="I23">
+        <v>9.1832999999999991</v>
+      </c>
       <c r="J23">
         <v>10.3233</v>
       </c>
       <c r="K23">
         <v>8.7363999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N23">
+        <v>9.0597999999999992</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14.0922</v>
       </c>
@@ -955,14 +1078,29 @@
       <c r="D24">
         <v>10.319100000000001</v>
       </c>
+      <c r="F24">
+        <v>10.568199999999999</v>
+      </c>
+      <c r="G24">
+        <v>9.9352999999999998</v>
+      </c>
+      <c r="H24">
+        <v>8.6759000000000004</v>
+      </c>
+      <c r="I24">
+        <v>10.599299999999999</v>
+      </c>
       <c r="J24">
         <v>14.0259</v>
       </c>
       <c r="K24">
         <v>8.7635000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N24">
+        <v>9.5495000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15.0398</v>
       </c>
@@ -975,14 +1113,29 @@
       <c r="D25">
         <v>9.1702999999999992</v>
       </c>
+      <c r="F25">
+        <v>11.782500000000001</v>
+      </c>
+      <c r="G25">
+        <v>10.617900000000001</v>
+      </c>
+      <c r="H25">
+        <v>10.265700000000001</v>
+      </c>
+      <c r="I25">
+        <v>9.8912999999999993</v>
+      </c>
       <c r="J25">
         <v>9.1475000000000009</v>
       </c>
       <c r="K25">
         <v>9.8156999999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="N25">
+        <v>9.7481000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>4</v>
       </c>
@@ -1434,6 +1587,18 @@
       <c r="F58">
         <v>0.1076</v>
       </c>
+      <c r="G58">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="H58">
+        <v>0.24840000000000001</v>
+      </c>
+      <c r="I58">
+        <v>0.27510000000000001</v>
+      </c>
+      <c r="J58">
+        <v>0.28249999999999997</v>
+      </c>
       <c r="K58">
         <v>0.42259999999999998</v>
       </c>
@@ -1454,6 +1619,18 @@
       <c r="F59">
         <v>0.2177</v>
       </c>
+      <c r="G59">
+        <v>0.21460000000000001</v>
+      </c>
+      <c r="H59">
+        <v>0.25850000000000001</v>
+      </c>
+      <c r="I59">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="J59">
+        <v>0.27550000000000002</v>
+      </c>
       <c r="K59">
         <v>0.3876</v>
       </c>
@@ -1474,6 +1651,18 @@
       <c r="F60">
         <v>0.1666</v>
       </c>
+      <c r="G60">
+        <v>0.1101</v>
+      </c>
+      <c r="H60">
+        <v>0.2737</v>
+      </c>
+      <c r="I60">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="J60">
+        <v>0.27479999999999999</v>
+      </c>
       <c r="K60">
         <v>0.40860000000000002</v>
       </c>
@@ -1494,6 +1683,18 @@
       <c r="F61">
         <v>0.26369999999999999</v>
       </c>
+      <c r="G61">
+        <v>0.1623</v>
+      </c>
+      <c r="H61">
+        <v>0.28789999999999999</v>
+      </c>
+      <c r="I61">
+        <v>0.25719999999999998</v>
+      </c>
+      <c r="J61">
+        <v>0.2611</v>
+      </c>
       <c r="K61">
         <v>0.38040000000000002</v>
       </c>
@@ -1514,6 +1715,18 @@
       <c r="F62">
         <v>0.20949999999999999</v>
       </c>
+      <c r="G62">
+        <v>7.9399999999999998E-2</v>
+      </c>
+      <c r="H62">
+        <v>0.27889999999999998</v>
+      </c>
+      <c r="I62">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="J62">
+        <v>0.24249999999999999</v>
+      </c>
       <c r="K62">
         <v>0.40010000000000001</v>
       </c>
@@ -1534,6 +1747,18 @@
       <c r="F63">
         <v>0.26069999999999999</v>
       </c>
+      <c r="G63">
+        <v>0.10920000000000001</v>
+      </c>
+      <c r="H63">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="I63">
+        <v>0.26040000000000002</v>
+      </c>
+      <c r="J63">
+        <v>0.26640000000000003</v>
+      </c>
       <c r="K63">
         <v>0.36559999999999998</v>
       </c>
@@ -1554,6 +1779,18 @@
       <c r="F64">
         <v>0.20180000000000001</v>
       </c>
+      <c r="G64">
+        <v>0.2094</v>
+      </c>
+      <c r="H64">
+        <v>0.26329999999999998</v>
+      </c>
+      <c r="I64">
+        <v>0.25259999999999999</v>
+      </c>
+      <c r="J64">
+        <v>0.25879999999999997</v>
+      </c>
       <c r="K64">
         <v>0.39090000000000003</v>
       </c>
@@ -1574,6 +1811,18 @@
       <c r="F65">
         <v>0.26629999999999998</v>
       </c>
+      <c r="G65">
+        <v>0.13619999999999999</v>
+      </c>
+      <c r="H65">
+        <v>0.26640000000000003</v>
+      </c>
+      <c r="I65">
+        <v>0.27260000000000001</v>
+      </c>
+      <c r="J65">
+        <v>0.27729999999999999</v>
+      </c>
       <c r="K65">
         <v>0.30909999999999999</v>
       </c>
@@ -1594,6 +1843,18 @@
       <c r="F66">
         <v>0.24729999999999999</v>
       </c>
+      <c r="G66">
+        <v>-4.3299999999999998E-2</v>
+      </c>
+      <c r="H66">
+        <v>0.2641</v>
+      </c>
+      <c r="I66">
+        <v>0.2215</v>
+      </c>
+      <c r="J66">
+        <v>0.24779999999999999</v>
+      </c>
       <c r="K66">
         <v>0.41320000000000001</v>
       </c>
@@ -1613,6 +1874,18 @@
       </c>
       <c r="F67">
         <v>0.22189999999999999</v>
+      </c>
+      <c r="G67">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="H67">
+        <v>0.26729999999999998</v>
+      </c>
+      <c r="I67">
+        <v>0.26169999999999999</v>
+      </c>
+      <c r="J67">
+        <v>0.26279999999999998</v>
       </c>
       <c r="K67">
         <v>0.4158</v>
